--- a/Control Data/Global GDP.xlsx
+++ b/Control Data/Global GDP.xlsx
@@ -1,22 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b78d619d73e49735/Documents/Coding/JHU Data/COVID-19/Control Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chacr\OneDrive\Documents\Coding\JHU Data\COVID-19\Control Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{8DE75DE0-6BFA-4A8E-B831-160010F86EAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{8DE75DE0-6BFA-4A8E-B831-160010F86EAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{44F78AE1-F765-4B85-94B4-1CB150816239}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-315" windowWidth="29040" windowHeight="15840"/>
+    <workbookView xWindow="-24120" yWindow="2220" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global GDP" sheetId="1" r:id="rId1"/>
     <sheet name="metadata" sheetId="2" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
+    </ext>
+  </extLst>
 </workbook>
 </file>
 
@@ -1443,16 +1453,16 @@
     <t>GDP projections:  http://data.worldbank.org/data-catalog/global-economic-prospects</t>
   </si>
   <si>
-    <t>(millions of US dollars)</t>
-  </si>
-  <si>
     <t>countrycode</t>
+  </si>
+  <si>
+    <t>US dollars in mil</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2288,11 +2298,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E218"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="D8" sqref="D8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2302,7 +2312,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2311,7 +2321,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>473</v>
+        <v>474</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5340,7 +5350,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView topLeftCell="A3" workbookViewId="0">

--- a/Control Data/Global GDP.xlsx
+++ b/Control Data/Global GDP.xlsx
@@ -5,17 +5,20 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chacr\OneDrive\Documents\Coding\JHU Data\COVID-19\Control Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/b78d619d73e49735/Documents/Coding/JHU Data/COVID-19/Control Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="1" documentId="8_{8DE75DE0-6BFA-4A8E-B831-160010F86EAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{44F78AE1-F765-4B85-94B4-1CB150816239}"/>
+  <xr:revisionPtr revIDLastSave="14" documentId="8_{8DE75DE0-6BFA-4A8E-B831-160010F86EAC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{7C7BCBB6-73DB-47D7-B682-BD58F773E294}"/>
   <bookViews>
-    <workbookView xWindow="-24120" yWindow="2220" windowWidth="24240" windowHeight="13140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3285" yWindow="840" windowWidth="21810" windowHeight="11790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Global GDP" sheetId="1" r:id="rId1"/>
     <sheet name="metadata" sheetId="2" r:id="rId2"/>
   </sheets>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">'Global GDP'!$A$1:$D$218</definedName>
+  </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="489" uniqueCount="475">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="476">
   <si>
     <t>Ranking</t>
   </si>
@@ -1282,9 +1285,6 @@
   </si>
   <si>
     <t>Bermuda</t>
-  </si>
-  <si>
-    <t xml:space="preserve"> -   </t>
   </si>
   <si>
     <t>VGB</t>
@@ -1457,6 +1457,12 @@
   </si>
   <si>
     <t>US dollars in mil</t>
+  </si>
+  <si>
+    <t>TWN</t>
+  </si>
+  <si>
+    <t>Taiwan</t>
   </si>
 </sst>
 </file>
@@ -1940,10 +1946,13 @@
     <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="42">
     <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
@@ -2299,20 +2308,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E218"/>
+  <dimension ref="A1:E219"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D8" sqref="D8"/>
+    <sheetView tabSelected="1" topLeftCell="A200" workbookViewId="0">
+      <selection activeCell="H210" sqref="H210"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="3" max="3" width="25.7109375" customWidth="1"/>
     <col min="4" max="4" width="11.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B1" t="s">
         <v>0</v>
@@ -2321,7 +2331,7 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -5197,154 +5207,121 @@
       <c r="C205" t="s">
         <v>416</v>
       </c>
-      <c r="D205" t="s">
-        <v>417</v>
-      </c>
     </row>
     <row r="206" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A206" t="s">
+        <v>417</v>
+      </c>
+      <c r="C206" t="s">
         <v>418</v>
-      </c>
-      <c r="C206" t="s">
-        <v>419</v>
-      </c>
-      <c r="D206" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="207" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A207" t="s">
+        <v>419</v>
+      </c>
+      <c r="C207" t="s">
         <v>420</v>
-      </c>
-      <c r="C207" t="s">
-        <v>421</v>
-      </c>
-      <c r="D207" t="s">
-        <v>417</v>
       </c>
     </row>
     <row r="208" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A208" t="s">
+        <v>421</v>
+      </c>
+      <c r="C208" t="s">
         <v>422</v>
       </c>
-      <c r="C208" t="s">
+    </row>
+    <row r="209" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A209" t="s">
         <v>423</v>
       </c>
-      <c r="D208" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A209" t="s">
+      <c r="C209" t="s">
         <v>424</v>
       </c>
-      <c r="C209" t="s">
+    </row>
+    <row r="210" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A210" t="s">
         <v>425</v>
       </c>
-      <c r="D209" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A210" t="s">
+      <c r="C210" t="s">
         <v>426</v>
       </c>
-      <c r="C210" t="s">
+    </row>
+    <row r="211" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A211" t="s">
         <v>427</v>
       </c>
-      <c r="D210" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A211" t="s">
+      <c r="C211" t="s">
         <v>428</v>
       </c>
-      <c r="C211" t="s">
+    </row>
+    <row r="212" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A212" t="s">
         <v>429</v>
       </c>
-      <c r="D211" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A212" t="s">
+      <c r="C212" t="s">
         <v>430</v>
       </c>
-      <c r="C212" t="s">
+    </row>
+    <row r="213" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A213" t="s">
         <v>431</v>
       </c>
-      <c r="D212" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="213" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A213" t="s">
+      <c r="C213" t="s">
         <v>432</v>
       </c>
-      <c r="C213" t="s">
+    </row>
+    <row r="214" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A214" t="s">
         <v>433</v>
       </c>
-      <c r="D213" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="214" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A214" t="s">
+      <c r="C214" t="s">
         <v>434</v>
       </c>
-      <c r="C214" t="s">
+    </row>
+    <row r="215" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A215" t="s">
         <v>435</v>
       </c>
-      <c r="D214" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="215" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A215" t="s">
+      <c r="C215" t="s">
         <v>436</v>
       </c>
-      <c r="C215" t="s">
+    </row>
+    <row r="216" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A216" t="s">
         <v>437</v>
       </c>
-      <c r="D215" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="216" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A216" t="s">
+      <c r="C216" t="s">
         <v>438</v>
       </c>
-      <c r="C216" t="s">
+    </row>
+    <row r="217" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A217" t="s">
         <v>439</v>
       </c>
-      <c r="D216" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="217" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A217" t="s">
+      <c r="C217" t="s">
         <v>440</v>
       </c>
-      <c r="C217" t="s">
+    </row>
+    <row r="218" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A218" t="s">
         <v>441</v>
       </c>
-      <c r="D217" t="s">
-        <v>417</v>
-      </c>
-    </row>
-    <row r="218" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A218" t="s">
+      <c r="C218" t="s">
         <v>442</v>
       </c>
-      <c r="C218" t="s">
-        <v>443</v>
-      </c>
-      <c r="D218" t="s">
-        <v>417</v>
+    </row>
+    <row r="219" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A219" t="s">
+        <v>474</v>
+      </c>
+      <c r="C219" s="3" t="s">
+        <v>475</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:D218" xr:uid="{FCB43D79-3B64-4FCB-99FA-0AB4AD179A3D}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
@@ -5353,7 +5330,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:E20"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
@@ -5361,10 +5338,10 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>443</v>
+      </c>
+      <c r="D1" t="s">
         <v>444</v>
-      </c>
-      <c r="D1" t="s">
-        <v>445</v>
       </c>
       <c r="E1" s="1">
         <v>87751541</v>
@@ -5377,10 +5354,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>445</v>
+      </c>
+      <c r="D4" t="s">
         <v>446</v>
-      </c>
-      <c r="D4" t="s">
-        <v>447</v>
       </c>
       <c r="E4" s="1">
         <v>26979806</v>
@@ -5388,10 +5365,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>447</v>
+      </c>
+      <c r="D5" t="s">
         <v>448</v>
-      </c>
-      <c r="D5" t="s">
-        <v>449</v>
       </c>
       <c r="E5" s="1">
         <v>22748789</v>
@@ -5399,10 +5376,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>449</v>
+      </c>
+      <c r="D6" t="s">
         <v>450</v>
-      </c>
-      <c r="D6" t="s">
-        <v>451</v>
       </c>
       <c r="E6" s="1">
         <v>5719253</v>
@@ -5410,10 +5387,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>451</v>
+      </c>
+      <c r="D7" t="s">
         <v>452</v>
-      </c>
-      <c r="D7" t="s">
-        <v>453</v>
       </c>
       <c r="E7" s="1">
         <v>3701386</v>
@@ -5421,10 +5398,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>453</v>
+      </c>
+      <c r="D8" t="s">
         <v>454</v>
-      </c>
-      <c r="D8" t="s">
-        <v>455</v>
       </c>
       <c r="E8" s="1">
         <v>23171055</v>
@@ -5432,10 +5409,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>455</v>
+      </c>
+      <c r="D9" t="s">
         <v>456</v>
-      </c>
-      <c r="D9" t="s">
-        <v>457</v>
       </c>
       <c r="E9" s="1">
         <v>3597970</v>
@@ -5443,10 +5420,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>457</v>
+      </c>
+      <c r="D10" t="s">
         <v>458</v>
-      </c>
-      <c r="D10" t="s">
-        <v>459</v>
       </c>
       <c r="E10" s="1">
         <v>1755011</v>
@@ -5454,10 +5431,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>459</v>
+      </c>
+      <c r="D11" t="s">
         <v>460</v>
-      </c>
-      <c r="D11" t="s">
-        <v>461</v>
       </c>
       <c r="E11" s="1">
         <v>521274</v>
@@ -5465,10 +5442,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>461</v>
+      </c>
+      <c r="D12" t="s">
         <v>462</v>
-      </c>
-      <c r="D12" t="s">
-        <v>463</v>
       </c>
       <c r="E12" s="1">
         <v>6341105</v>
@@ -5476,10 +5453,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
+        <v>463</v>
+      </c>
+      <c r="D13" t="s">
         <v>464</v>
-      </c>
-      <c r="D13" t="s">
-        <v>465</v>
       </c>
       <c r="E13" s="1">
         <v>25817130</v>
@@ -5487,10 +5464,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
+        <v>465</v>
+      </c>
+      <c r="D14" t="s">
         <v>466</v>
-      </c>
-      <c r="D14" t="s">
-        <v>467</v>
       </c>
       <c r="E14" s="1">
         <v>55098717</v>
@@ -5498,27 +5475,27 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
       <c r="B16" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B17" s="2" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B18" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
     </row>
     <row r="19" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B19" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
     </row>
     <row r="20" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B20" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
     </row>
   </sheetData>
